--- a/cpr.xlsx
+++ b/cpr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LammariOm\websheetprjt\cpr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E48D04D-C954-4AF1-B038-DE79123D7D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171F58FB-C3FE-4A86-8C82-7006656D6559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9B9D356B-8F4A-44DC-B120-0603307E2705}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="376">
   <si>
     <t>Nom Comm.</t>
   </si>
@@ -591,9 +591,6 @@
   </si>
   <si>
     <t>LOMZOLE BGL</t>
-  </si>
-  <si>
-    <t>OM?PRAZOLE</t>
   </si>
   <si>
     <t>PILULIER DE 14</t>
@@ -1569,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655C699D-9F4D-4883-BC28-81A284F0C35F}">
   <dimension ref="A1:G197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3356,7 +3353,7 @@
         <v>184</v>
       </c>
       <c r="B83" t="s">
-        <v>185</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
@@ -3365,7 +3362,7 @@
         <v>23</v>
       </c>
       <c r="E83" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F83" s="3">
         <v>196</v>
@@ -3376,7 +3373,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B84" t="s">
         <v>74</v>
@@ -3396,7 +3393,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B85" t="s">
         <v>74</v>
@@ -3416,7 +3413,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B86" t="s">
         <v>149</v>
@@ -3434,41 +3431,41 @@
         <v>1866.48</v>
       </c>
       <c r="G86" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B87" t="s">
         <v>149</v>
       </c>
       <c r="C87" t="s">
+        <v>189</v>
+      </c>
+      <c r="D87" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" t="s">
         <v>190</v>
-      </c>
-      <c r="D87" t="s">
-        <v>23</v>
-      </c>
-      <c r="E87" t="s">
-        <v>191</v>
       </c>
       <c r="F87" s="3">
         <v>5599.44</v>
       </c>
       <c r="G87" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B88" t="s">
         <v>149</v>
       </c>
       <c r="C88" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D88" t="s">
         <v>23</v>
@@ -3480,12 +3477,12 @@
         <v>4015.2</v>
       </c>
       <c r="G88" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B89" t="s">
         <v>149</v>
@@ -3500,12 +3497,12 @@
         <v>4302</v>
       </c>
       <c r="G89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B90" t="s">
         <v>149</v>
@@ -3520,12 +3517,12 @@
         <v>4302</v>
       </c>
       <c r="G90" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B91" t="s">
         <v>149</v>
@@ -3534,21 +3531,21 @@
         <v>171</v>
       </c>
       <c r="E91" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F91" s="3">
         <v>1999.8</v>
       </c>
       <c r="G91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>199</v>
+      </c>
+      <c r="B92" t="s">
         <v>200</v>
-      </c>
-      <c r="B92" t="s">
-        <v>201</v>
       </c>
       <c r="C92" t="s">
         <v>17</v>
@@ -3565,7 +3562,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
@@ -3585,7 +3582,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
@@ -3603,12 +3600,12 @@
         <v>196</v>
       </c>
       <c r="G94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
@@ -3631,7 +3628,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
@@ -3651,7 +3648,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B97" t="s">
         <v>149</v>
@@ -3666,12 +3663,12 @@
         <v>4302</v>
       </c>
       <c r="G97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B98" t="s">
         <v>149</v>
@@ -3686,12 +3683,12 @@
         <v>1999.8</v>
       </c>
       <c r="G98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B99" t="s">
         <v>149</v>
@@ -3706,18 +3703,18 @@
         <v>4302</v>
       </c>
       <c r="G99" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B100" t="s">
         <v>149</v>
       </c>
       <c r="C100" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E100" t="s">
         <v>172</v>
@@ -3726,12 +3723,12 @@
         <v>1999.8</v>
       </c>
       <c r="G100" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B101" t="s">
         <v>149</v>
@@ -3746,12 +3743,12 @@
         <v>4302</v>
       </c>
       <c r="G101" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
@@ -3771,7 +3768,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
@@ -3786,12 +3783,12 @@
         <v>196</v>
       </c>
       <c r="G103" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
@@ -3811,7 +3808,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
@@ -3831,7 +3828,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
@@ -3854,7 +3851,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
@@ -3874,10 +3871,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B108" t="s">
-        <v>185</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>9</v>
@@ -3886,18 +3883,18 @@
         <v>23</v>
       </c>
       <c r="E108" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F108" s="3">
         <v>196</v>
       </c>
       <c r="G108" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
@@ -3917,7 +3914,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
@@ -3937,7 +3934,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
@@ -3957,7 +3954,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
@@ -3977,7 +3974,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
@@ -3992,12 +3989,12 @@
         <v>392</v>
       </c>
       <c r="G113" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
@@ -4012,12 +4009,12 @@
         <v>392</v>
       </c>
       <c r="G114" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
@@ -4032,12 +4029,12 @@
         <v>196</v>
       </c>
       <c r="G115" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
@@ -4055,12 +4052,12 @@
         <v>196</v>
       </c>
       <c r="G116" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
@@ -4078,64 +4075,64 @@
         <v>196</v>
       </c>
       <c r="G117" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>233</v>
+      </c>
+      <c r="B118" t="s">
         <v>234</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>235</v>
-      </c>
-      <c r="C118" t="s">
-        <v>236</v>
       </c>
       <c r="D118" t="s">
         <v>45</v>
       </c>
       <c r="E118" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F118" s="3">
         <v>1024</v>
       </c>
       <c r="G118" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" t="s">
         <v>234</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>235</v>
-      </c>
-      <c r="C119" t="s">
-        <v>236</v>
       </c>
       <c r="D119" t="s">
         <v>45</v>
       </c>
       <c r="E119" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F119" s="3">
         <v>2048</v>
       </c>
       <c r="G119" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>233</v>
+      </c>
+      <c r="B120" t="s">
         <v>234</v>
       </c>
-      <c r="B120" t="s">
-        <v>235</v>
-      </c>
       <c r="C120" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D120" t="s">
         <v>23</v>
@@ -4147,18 +4144,18 @@
         <v>2200</v>
       </c>
       <c r="G120" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B121" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C121" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E121" t="s">
         <v>38</v>
@@ -4167,18 +4164,18 @@
         <v>2200</v>
       </c>
       <c r="G121" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B122" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C122" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E122" t="s">
         <v>61</v>
@@ -4187,32 +4184,32 @@
         <v>1024</v>
       </c>
       <c r="G122" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B123" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C123" t="s">
+        <v>246</v>
+      </c>
+      <c r="E123" t="s">
         <v>247</v>
-      </c>
-      <c r="E123" t="s">
-        <v>248</v>
       </c>
       <c r="F123" s="3">
         <v>2048</v>
       </c>
       <c r="G123" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B124" t="s">
         <v>126</v>
@@ -4230,12 +4227,12 @@
         <v>714</v>
       </c>
       <c r="G124" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B125" t="s">
         <v>126</v>
@@ -4253,18 +4250,18 @@
         <v>1143</v>
       </c>
       <c r="G125" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>252</v>
+      </c>
+      <c r="B126" t="s">
         <v>253</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>254</v>
-      </c>
-      <c r="C126" t="s">
-        <v>255</v>
       </c>
       <c r="E126" t="s">
         <v>38</v>
@@ -4278,13 +4275,13 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" t="s">
         <v>253</v>
       </c>
-      <c r="B127" t="s">
-        <v>254</v>
-      </c>
       <c r="C127" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E127" t="s">
         <v>38</v>
@@ -4293,12 +4290,12 @@
         <v>1143</v>
       </c>
       <c r="G127" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
@@ -4321,7 +4318,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B129" t="s">
         <v>8</v>
@@ -4341,10 +4338,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>259</v>
+      </c>
+      <c r="B130" t="s">
         <v>260</v>
-      </c>
-      <c r="B130" t="s">
-        <v>261</v>
       </c>
       <c r="C130" t="s">
         <v>55</v>
@@ -4356,21 +4353,21 @@
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B131" t="s">
+        <v>262</v>
+      </c>
+      <c r="C131" t="s">
         <v>263</v>
       </c>
-      <c r="C131" t="s">
+      <c r="E131" t="s">
         <v>264</v>
-      </c>
-      <c r="E131" t="s">
-        <v>265</v>
       </c>
       <c r="F131" s="3">
         <v>1074</v>
@@ -4381,16 +4378,16 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B132" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C132" t="s">
         <v>44</v>
       </c>
       <c r="E132" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F132" s="3">
         <v>0</v>
@@ -4401,73 +4398,73 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B133" t="s">
+        <v>265</v>
+      </c>
+      <c r="C133" t="s">
         <v>266</v>
       </c>
-      <c r="C133" t="s">
+      <c r="E133" t="s">
         <v>267</v>
-      </c>
-      <c r="E133" t="s">
-        <v>268</v>
       </c>
       <c r="F133" s="3">
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B134" t="s">
         <v>69</v>
       </c>
       <c r="C134" t="s">
+        <v>270</v>
+      </c>
+      <c r="D134" t="s">
+        <v>23</v>
+      </c>
+      <c r="E134" t="s">
         <v>271</v>
-      </c>
-      <c r="D134" t="s">
-        <v>23</v>
-      </c>
-      <c r="E134" t="s">
-        <v>272</v>
       </c>
       <c r="F134" s="3">
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B135" t="s">
         <v>69</v>
       </c>
       <c r="C135" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D135" t="s">
         <v>23</v>
       </c>
       <c r="E135" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F135" s="3">
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B136" t="s">
         <v>69</v>
@@ -4485,12 +4482,12 @@
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B137" t="s">
         <v>69</v>
@@ -4502,18 +4499,18 @@
         <v>45</v>
       </c>
       <c r="E137" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F137" s="3">
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B138" t="s">
         <v>69</v>
@@ -4525,21 +4522,21 @@
         <v>45</v>
       </c>
       <c r="E138" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F138" s="3">
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>281</v>
+      </c>
+      <c r="B139" t="s">
         <v>282</v>
-      </c>
-      <c r="B139" t="s">
-        <v>283</v>
       </c>
       <c r="C139" t="s">
         <v>17</v>
@@ -4556,13 +4553,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B140" t="s">
+        <v>283</v>
+      </c>
+      <c r="C140" t="s">
         <v>284</v>
-      </c>
-      <c r="C140" t="s">
-        <v>285</v>
       </c>
       <c r="E140" t="s">
         <v>38</v>
@@ -4576,7 +4573,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B141" t="s">
         <v>8</v>
@@ -4585,7 +4582,7 @@
         <v>12</v>
       </c>
       <c r="E141" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F141" s="3">
         <v>210</v>
@@ -4596,7 +4593,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B142" t="s">
         <v>149</v>
@@ -4611,12 +4608,12 @@
         <v>999.9</v>
       </c>
       <c r="G142" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B143" t="s">
         <v>149</v>
@@ -4631,12 +4628,12 @@
         <v>2151</v>
       </c>
       <c r="G143" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B144" t="s">
         <v>149</v>
@@ -4651,18 +4648,18 @@
         <v>4302</v>
       </c>
       <c r="G144" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B145" t="s">
         <v>149</v>
       </c>
       <c r="C145" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E145" t="s">
         <v>172</v>
@@ -4671,18 +4668,18 @@
         <v>1999.8</v>
       </c>
       <c r="G145" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B146" t="s">
         <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E146" t="s">
         <v>172</v>
@@ -4691,18 +4688,18 @@
         <v>1999.8</v>
       </c>
       <c r="G146" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B147" t="s">
         <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E147" t="s">
         <v>172</v>
@@ -4711,18 +4708,18 @@
         <v>4302</v>
       </c>
       <c r="G147" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E148" t="s">
         <v>172</v>
@@ -4731,18 +4728,18 @@
         <v>1999.8</v>
       </c>
       <c r="G148" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B149" t="s">
         <v>149</v>
       </c>
       <c r="C149" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E149" t="s">
         <v>172</v>
@@ -4751,12 +4748,12 @@
         <v>4302</v>
       </c>
       <c r="G149" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B150" t="s">
         <v>36</v>
@@ -4779,7 +4776,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B151" t="s">
         <v>36</v>
@@ -4802,7 +4799,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B152" t="s">
         <v>8</v>
@@ -4814,7 +4811,7 @@
         <v>23</v>
       </c>
       <c r="E152" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F152" s="3">
         <v>98</v>
@@ -4825,7 +4822,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B153" t="s">
         <v>8</v>
@@ -4848,7 +4845,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B154" t="s">
         <v>8</v>
@@ -4860,7 +4857,7 @@
         <v>23</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F154" s="3">
         <v>392</v>
@@ -4871,7 +4868,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B155" t="s">
         <v>8</v>
@@ -4894,10 +4891,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>302</v>
+      </c>
+      <c r="B156" t="s">
         <v>303</v>
-      </c>
-      <c r="B156" t="s">
-        <v>304</v>
       </c>
       <c r="C156" t="s">
         <v>77</v>
@@ -4917,7 +4914,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B157" t="s">
         <v>36</v>
@@ -4940,7 +4937,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B158" t="s">
         <v>52</v>
@@ -4960,7 +4957,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B159" t="s">
         <v>149</v>
@@ -4975,18 +4972,18 @@
         <v>4015.2</v>
       </c>
       <c r="G159" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B160" t="s">
         <v>149</v>
       </c>
       <c r="C160" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E160" t="s">
         <v>151</v>
@@ -4995,18 +4992,18 @@
         <v>1866.48</v>
       </c>
       <c r="G160" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B161" t="s">
         <v>149</v>
       </c>
       <c r="C161" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D161" t="s">
         <v>23</v>
@@ -5018,12 +5015,12 @@
         <v>4302</v>
       </c>
       <c r="G161" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B162" t="s">
         <v>149</v>
@@ -5038,12 +5035,12 @@
         <v>1999.8</v>
       </c>
       <c r="G162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B163" t="s">
         <v>16</v>
@@ -5061,12 +5058,12 @@
         <v>574</v>
       </c>
       <c r="G163" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B164" t="s">
         <v>16</v>
@@ -5084,12 +5081,12 @@
         <v>280</v>
       </c>
       <c r="G164" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B165" t="s">
         <v>16</v>
@@ -5104,12 +5101,12 @@
         <v>410</v>
       </c>
       <c r="G165" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B166" t="s">
         <v>16</v>
@@ -5124,12 +5121,12 @@
         <v>200</v>
       </c>
       <c r="G166" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B167" t="s">
         <v>16</v>
@@ -5144,12 +5141,12 @@
         <v>280</v>
       </c>
       <c r="G167" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B168" t="s">
         <v>16</v>
@@ -5169,7 +5166,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B169" t="s">
         <v>16</v>
@@ -5184,18 +5181,18 @@
         <v>1230</v>
       </c>
       <c r="G169" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>316</v>
+      </c>
+      <c r="B170" t="s">
         <v>317</v>
       </c>
-      <c r="B170" t="s">
-        <v>318</v>
-      </c>
       <c r="C170" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E170" t="s">
         <v>83</v>
@@ -5204,12 +5201,12 @@
         <v>200</v>
       </c>
       <c r="G170" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B171" t="s">
         <v>8</v>
@@ -5232,10 +5229,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>320</v>
+      </c>
+      <c r="B172" t="s">
         <v>321</v>
-      </c>
-      <c r="B172" t="s">
-        <v>322</v>
       </c>
       <c r="C172" t="s">
         <v>130</v>
@@ -5244,21 +5241,21 @@
         <v>23</v>
       </c>
       <c r="E172" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F172" s="3">
         <v>800.1</v>
       </c>
       <c r="G172" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>320</v>
+      </c>
+      <c r="B173" t="s">
         <v>321</v>
-      </c>
-      <c r="B173" t="s">
-        <v>322</v>
       </c>
       <c r="C173" t="s">
         <v>130</v>
@@ -5273,15 +5270,15 @@
         <v>3200.4</v>
       </c>
       <c r="G173" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B174" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C174" t="s">
         <v>127</v>
@@ -5290,21 +5287,21 @@
         <v>23</v>
       </c>
       <c r="E174" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F174" s="3">
         <v>499.8</v>
       </c>
       <c r="G174" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B175" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C175" t="s">
         <v>127</v>
@@ -5319,38 +5316,38 @@
         <v>1999.2</v>
       </c>
       <c r="G175" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>328</v>
+      </c>
+      <c r="B176" t="s">
         <v>329</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>330</v>
-      </c>
-      <c r="C176" t="s">
-        <v>331</v>
       </c>
       <c r="D176" t="s">
         <v>45</v>
       </c>
       <c r="E176" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F176" s="3">
         <v>0</v>
       </c>
       <c r="G176" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>333</v>
+      </c>
+      <c r="B177" t="s">
         <v>334</v>
-      </c>
-      <c r="B177" t="s">
-        <v>335</v>
       </c>
       <c r="C177" t="s">
         <v>44</v>
@@ -5365,15 +5362,15 @@
         <v>0</v>
       </c>
       <c r="G177" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B178" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C178" t="s">
         <v>49</v>
@@ -5388,18 +5385,18 @@
         <v>0</v>
       </c>
       <c r="G178" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>338</v>
+      </c>
+      <c r="B179" t="s">
         <v>339</v>
       </c>
-      <c r="B179" t="s">
-        <v>340</v>
-      </c>
       <c r="C179" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E179" t="s">
         <v>38</v>
@@ -5408,18 +5405,18 @@
         <v>714</v>
       </c>
       <c r="G179" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B180" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C180" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E180" t="s">
         <v>38</v>
@@ -5428,18 +5425,18 @@
         <v>1143</v>
       </c>
       <c r="G180" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>342</v>
+      </c>
+      <c r="B181" t="s">
         <v>343</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>344</v>
-      </c>
-      <c r="C181" t="s">
-        <v>345</v>
       </c>
       <c r="D181" t="s">
         <v>23</v>
@@ -5451,12 +5448,12 @@
         <v>900</v>
       </c>
       <c r="G181" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B182" t="s">
         <v>8</v>
@@ -5471,12 +5468,12 @@
         <v>196</v>
       </c>
       <c r="G182" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B183" t="s">
         <v>69</v>
@@ -5494,12 +5491,12 @@
         <v>0</v>
       </c>
       <c r="G183" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B184" t="s">
         <v>69</v>
@@ -5517,12 +5514,12 @@
         <v>0</v>
       </c>
       <c r="G184" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B185" t="s">
         <v>69</v>
@@ -5534,18 +5531,18 @@
         <v>23</v>
       </c>
       <c r="E185" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F185" s="3">
         <v>1074</v>
       </c>
       <c r="G185" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B186" t="s">
         <v>149</v>
@@ -5560,12 +5557,12 @@
         <v>4015.2</v>
       </c>
       <c r="G186" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B187" t="s">
         <v>149</v>
@@ -5580,12 +5577,12 @@
         <v>1866.48</v>
       </c>
       <c r="G187" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B188" t="s">
         <v>16</v>
@@ -5594,18 +5591,18 @@
         <v>77</v>
       </c>
       <c r="E188" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F188" s="3">
         <v>574</v>
       </c>
       <c r="G188" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B189" t="s">
         <v>16</v>
@@ -5625,7 +5622,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B190" t="s">
         <v>126</v>
@@ -5643,18 +5640,18 @@
         <v>714</v>
       </c>
       <c r="G190" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B191" t="s">
         <v>126</v>
       </c>
       <c r="C191" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D191" t="s">
         <v>23</v>
@@ -5666,12 +5663,12 @@
         <v>1143</v>
       </c>
       <c r="G191" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B192" t="s">
         <v>8</v>
@@ -5680,7 +5677,7 @@
         <v>9</v>
       </c>
       <c r="E192" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F192" s="3">
         <v>392</v>
@@ -5691,7 +5688,7 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B193" t="s">
         <v>8</v>
@@ -5714,53 +5711,53 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>363</v>
+      </c>
+      <c r="B194" t="s">
         <v>364</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
         <v>365</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
+        <v>23</v>
+      </c>
+      <c r="E194" t="s">
         <v>366</v>
-      </c>
-      <c r="D194" t="s">
-        <v>23</v>
-      </c>
-      <c r="E194" t="s">
-        <v>367</v>
       </c>
       <c r="F194" s="3">
         <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>368</v>
+      </c>
+      <c r="B195" t="s">
+        <v>364</v>
+      </c>
+      <c r="C195" t="s">
         <v>369</v>
       </c>
-      <c r="B195" t="s">
-        <v>365</v>
-      </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
+        <v>23</v>
+      </c>
+      <c r="E195" t="s">
         <v>370</v>
-      </c>
-      <c r="D195" t="s">
-        <v>23</v>
-      </c>
-      <c r="E195" t="s">
-        <v>371</v>
       </c>
       <c r="F195" s="3">
         <v>0</v>
       </c>
       <c r="G195" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B196" t="s">
         <v>126</v>
@@ -5769,18 +5766,18 @@
         <v>127</v>
       </c>
       <c r="E196" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F196" s="3">
         <v>285.60000000000002</v>
       </c>
       <c r="G196" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B197" t="s">
         <v>126</v>
@@ -5795,7 +5792,7 @@
         <v>1143</v>
       </c>
       <c r="G197" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
